--- a/05 Qt入门到精通专栏【网络及多线程】/02 TCP协议工作原理及实战.xlsx
+++ b/05 Qt入门到精通专栏【网络及多线程】/02 TCP协议工作原理及实战.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\MyQt\05 Qt入门到精通专栏【网络及多线程】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED159750-7047-4041-98A3-7B9B7F651BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F39572-CE37-4A8C-BB9E-4321A237583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>02 TCP协议工作原理及实战</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>要部分：慢启动、拥塞避免、快速重传和快速恢复。</t>
-  </si>
-  <si>
-    <t>3、TCP通信必须建立TCP连接（客户端和服务器端），Qt提供</t>
-  </si>
-  <si>
-    <t>QTcpSocket类和QTcpServer类专门用于建立TCP通信程序。服务</t>
-  </si>
-  <si>
-    <t>器端用QTcpServer监听端口及建立服务器；QTcpSocket用于建立</t>
-  </si>
-  <si>
-    <t>连接后使用套接字（socket）进行通信。</t>
   </si>
   <si>
     <r>
@@ -81,12 +69,132 @@
     <t>客户端程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可靠性</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动重传，保证数据的完整性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面向连接</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要建立连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥塞控制</t>
+  </si>
+  <si>
+    <t>有序性</t>
+  </si>
+  <si>
+    <t>tcp结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报头长度 20-60字节(15*4=60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号（ sequence number ）字段，长度为 32 位，表示数据首字节的序号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三次握手阶段，SYN 指令也是通过该字段，将本端选定的 起始序号 告诉接收方。</t>
+  </si>
+  <si>
+    <t>确认号 （ acknowledgement number ）字段，长度为 32 位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它表示已确认收到的数据序号，它的值为：已收到数据最后一个字节的序号加一，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即接收方期望进一步接收的数据序号。</t>
+  </si>
+  <si>
+    <t>标志位</t>
+  </si>
+  <si>
+    <t>ACK ，确认指令，表示确认号有效，对已接收数据进行确认；</t>
+  </si>
+  <si>
+    <t>PSH ，立即推送指令，指示接收方立即将数据提交给应用层，不用等缓冲区装满；</t>
+  </si>
+  <si>
+    <t>RST ，重置指令，表示出现严重错误，常用于拒绝非法报文段以及拒绝连接请求；</t>
+  </si>
+  <si>
+    <t>SYN ，序号同步指令，在 TCP 三次握手建立连接时，将本端选定序号告诉对端；</t>
+  </si>
+  <si>
+    <t>FIN ，连接关闭指令，用于告诉对端，本端数据已发送完毕，连接关闭；</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +253,61 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,12 +331,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -248,8 +418,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160019</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88364</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,6 +492,70 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260315</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5B3B5A-93F8-5C15-D6BA-82BB802820DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="29664"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="251460"/>
+          <a:ext cx="5137115" cy="2644140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -594,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -607,10 +841,10 @@
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -628,34 +862,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+    <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -663,22 +900,88 @@
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{8EA5ADCB-3FA6-4DAE-B74B-2EBCEB0DAC8B}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{F7627DF2-ABB6-494F-8810-CD547B1048F0}"/>
+    <hyperlink ref="D10" location="Sheet2!A1" display="tcp结构" xr:uid="{8825E241-0A93-4B0E-A2D2-06307087E07F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF66E1-ED17-4CCF-A7B6-E404074C5B71}">
-  <dimension ref="A1"/>
+  <dimension ref="J3:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/05 Qt入门到精通专栏【网络及多线程】/02 TCP协议工作原理及实战.xlsx
+++ b/05 Qt入门到精通专栏【网络及多线程】/02 TCP协议工作原理及实战.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\MyQt\05 Qt入门到精通专栏【网络及多线程】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F39572-CE37-4A8C-BB9E-4321A237583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D9325-3C85-448F-B736-7B484341D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,6 +556,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>543742</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B42F4D-CB5F-D39D-4BEA-57A37CFFAB95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="3268980"/>
+          <a:ext cx="8704762" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -913,7 +957,7 @@
   <dimension ref="J3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
